--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/CONNECTICUT_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/CONNECTICUT_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16">
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19">
@@ -646,7 +646,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C22">
@@ -721,7 +721,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25">
@@ -765,7 +765,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C28">
@@ -778,7 +778,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C31">
@@ -853,7 +853,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C34">
@@ -897,7 +897,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C37">
@@ -941,7 +941,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C40">
@@ -985,7 +985,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C43">
@@ -998,7 +998,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C46">
@@ -1073,7 +1073,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C49">
@@ -1117,7 +1117,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C52">
@@ -1161,7 +1161,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C55">
@@ -1205,7 +1205,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C58">
@@ -1249,7 +1249,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C61">
@@ -1293,7 +1293,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C64">
@@ -1324,7 +1324,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1368,7 +1368,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1412,7 +1412,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C72">
@@ -1456,7 +1456,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C75">
@@ -1500,7 +1500,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C78">
@@ -1544,7 +1544,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C81">
@@ -1588,7 +1588,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84">
@@ -1601,7 +1601,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C87">
@@ -1676,7 +1676,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C90">
@@ -1689,7 +1689,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C91">
@@ -1697,41 +1697,6 @@
       </c>
       <c r="D91">
         <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
